--- a/IP管理/ip_router.xlsx
+++ b/IP管理/ip_router.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\DocumentSets\IP管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/IP管理/ip_router.xlsx
+++ b/IP管理/ip_router.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>IP分配表</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>!QAZ2wsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安晓倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,10 +992,18 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1">
+        <v>123456</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>

--- a/IP管理/ip_router.xlsx
+++ b/IP管理/ip_router.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>IP分配表</t>
   </si>
@@ -246,6 +246,14 @@
   </si>
   <si>
     <t>user05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softlab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qaz2wsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -403,6 +411,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -707,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1032,6 +1043,17 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>33</v>
+      </c>
+      <c r="B29">
+        <v>69643945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
